--- a/7-Gráficos/21. Gráfico de Velocímetro - Material(1).xlsx
+++ b/7-Gráficos/21. Gráfico de Velocímetro - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26F054-E63B-460E-A80A-7701887174E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0275B1D5-3FAF-45EE-8D63-E1B4D3D2B5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B992809-26F1-4319-9D87-499382825125}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5B992809-26F1-4319-9D87-499382825125}"/>
   </bookViews>
   <sheets>
     <sheet name="Gabarito" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -215,16 +218,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF0EA00"/>
+      <color rgb="FFFDB5AD"/>
+      <color rgb="FFFB4633"/>
+      <color rgb="FFECFD87"/>
+      <color rgb="FFBCC004"/>
+      <color rgb="FF00EE6C"/>
+      <color rgb="FF04D28D"/>
       <color rgb="FFFFC901"/>
       <color rgb="FFFFDB57"/>
       <color rgb="FFFFDD71"/>
-      <color rgb="FF04D28D"/>
-      <color rgb="FF00AF61"/>
-      <color rgb="FFFF9B9B"/>
-      <color rgb="FFFF6D6D"/>
-      <color rgb="FFB5E1AE"/>
-      <color rgb="FF91D290"/>
-      <color rgb="FFB3E2DD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -514,6 +517,7 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
+            <c:explosion val="8"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="19050">
@@ -583,13 +587,13 @@
                 <c:formatCode>#,##0_ ;\-#,##0\ </c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="&quot;R$&quot;\ #,##0">
-                  <c:v>74458</c:v>
+                  <c:v>69580</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>164542</c:v>
+                  <c:v>169420</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,6 +660,1170 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Nível</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FDB5AD"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FB4633"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ECFD87"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F0EA00"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00EE6C"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3F0C35F9-6079-481C-8EE4-F0DC13AB6523}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{31EB82D1-8AE2-4A27-BBA0-C5A6AAB405EC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4F1BE5A7-9F15-4184-8B5F-D4503558D25B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B133CDC6-0681-4EC1-87D5-B187C2D3565A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7F2D27AB-19FB-49F8-9D1B-9BD16649D7AD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[INTERVALODACÉLULA]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="pt-BR"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Do Zero'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Nível E</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nível D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nível C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nível B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Nível A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Do Zero'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Do Zero'!$A$2:$A$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>Nível E</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Nível D</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Nível C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Nível B</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Nível A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Total</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+        <c:holeSize val="50"/>
+      </c:doughnutChart>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Marcador</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:explosion val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="19050">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Do Zero'!$B$17:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ ;\-#,##0\ </c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="&quot;R$&quot;\ #,##0">
+                  <c:v>84565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BD20-45A2-BAE5-4EDCE4AB9AD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="270"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -720,8 +1888,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3685067" y="1471246"/>
-          <a:ext cx="3249132" cy="1293587"/>
+          <a:off x="3605937" y="1541584"/>
+          <a:ext cx="3143623" cy="1355134"/>
           <a:chOff x="4302194" y="1225444"/>
           <a:chExt cx="2253916" cy="837350"/>
         </a:xfrm>
@@ -848,7 +2016,7 @@
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>62,0%</a:t>
+                <a:t>58,0%</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="1600" b="1"/>
             </a:p>
@@ -906,7 +2074,7 @@
                   <a:cs typeface="Calibri"/>
                 </a:rPr>
                 <a:pPr algn="ctr"/>
-                <a:t>Carla Maia</a:t>
+                <a:t>Lucas Dias</a:t>
               </a:fld>
               <a:endParaRPr lang="pt-BR" sz="1100" b="1">
                 <a:solidFill>
@@ -1154,10 +2322,178 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>340702</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340702</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118695</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A91A1FD8-F416-68F4-C4FB-36C24B728B75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.39663</cdr:x>
+      <cdr:y>0.31838</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.60176</cdr:x>
+      <cdr:y>0.66026</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Elipse 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141C583F-3CE7-DE47-F331-B7EE0EA7ACAA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1813413" y="873371"/>
+          <a:ext cx="937847" cy="937847"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.27003</cdr:x>
+      <cdr:y>0.5</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.72837</cdr:x>
+      <cdr:y>0.76977</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Retângulo 8">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E72AF02-0F13-E9EC-A23C-C109D2FE0E4C}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1234587" y="1371601"/>
+          <a:ext cx="2095500" cy="740019"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1195,7 +2531,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1301,7 +2637,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1443,7 +2779,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1453,19 +2789,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC21421-90A5-42C6-A812-242F5A3A4257}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="8.88671875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="8" width="15.44140625" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1476,7 +2812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1492,10 +2828,10 @@
         <v>10</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +2844,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1521,7 +2857,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1534,7 +2870,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1547,7 +2883,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1559,10 +2895,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -1570,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +2914,7 @@
         <v>84565</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1586,7 +2922,7 @@
         <v>18169</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +2930,7 @@
         <v>69580</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1602,7 +2938,7 @@
         <v>35415</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1610,7 +2946,7 @@
         <v>74458</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -1621,20 +2957,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="12">
         <f>VLOOKUP(G2,A10:B14,2,0)</f>
-        <v>74458</v>
+        <v>69580</v>
       </c>
       <c r="C17" s="8">
         <f>B17/B7</f>
-        <v>0.62048333333333339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0.57983333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1642,13 +2978,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="10">
         <f>SUM(B2:B7)-B17-B18</f>
-        <v>164542</v>
+        <v>169420</v>
       </c>
     </row>
   </sheetData>
@@ -1666,16 +3002,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B60614-7E94-4433-B99A-C833A8B17D02}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.88671875" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
     <col min="5" max="6" width="16" customWidth="1"/>
     <col min="9" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +3024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1702,15 +3040,15 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="12">
-        <f t="shared" ref="B3:B6" si="0">$B$7*C3</f>
+        <f>$B$7*C3</f>
         <v>24000</v>
       </c>
       <c r="C3" s="7">
@@ -1718,12 +3056,12 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B6" si="0">$B$7*C4</f>
         <v>24000</v>
       </c>
       <c r="C4" s="7">
@@ -1731,7 +3069,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +3082,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1757,7 +3095,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1769,12 +3107,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="6"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -1783,7 +3121,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1792,7 +3130,7 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +3139,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1810,7 +3148,7 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1819,7 +3157,7 @@
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1828,12 +3166,12 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>19</v>
       </c>
@@ -1844,28 +3182,43 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12">
+        <f>VLOOKUP(F2,A10:B14,2,0)</f>
+        <v>84565</v>
+      </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <f>1%*B7</f>
+        <v>1200</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="10">
+        <f>SUM(B2:B7)-B17-B18</f>
+        <v>154235</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{A6879E1A-EDFF-4F1A-8E64-DFD01E9F1FF9}">
+      <formula1>$A$10:$A$14</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>